--- a/storage/app/public/vocabs/analogue/1.2/analogue_1-2.xlsx
+++ b/storage/app/public/vocabs/analogue/1.2/analogue_1-2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1342">
   <si>
     <t>synonyms</t>
   </si>
@@ -47,1933 +47,1936 @@
     <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_magmatic_structure-pluton</t>
   </si>
   <si>
-    <t>vein</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_magmatic_structure-vein</t>
-  </si>
-  <si>
-    <t>fissure</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_magmatic_structure-fissure</t>
-  </si>
-  <si>
-    <t>ring dike</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_magmatic_structure-ring_dike</t>
-  </si>
-  <si>
-    <t>radial dike</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_magmatic_structure-radial_dike</t>
-  </si>
-  <si>
-    <t>sill</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_magmatic_structure-sill</t>
+    <t>magmatic vein</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_magmatic_structure-magmatic_vein</t>
+  </si>
+  <si>
+    <t>magmatic fissure</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_magmatic_structure-magmatic_fissure</t>
+  </si>
+  <si>
+    <t>magmatic ring dike</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_magmatic_structure-magmatic_ring_dike</t>
+  </si>
+  <si>
+    <t>magmatic radial dike</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_magmatic_structure-magmatic_radial_dike</t>
+  </si>
+  <si>
+    <t>magmatic sill</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_magmatic_structure-magmatic_sill</t>
+  </si>
+  <si>
+    <t>magmatic dike</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_magmatic_structure-magmatic_dike</t>
+  </si>
+  <si>
+    <t>modelled deformation structure</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure</t>
+  </si>
+  <si>
+    <t>modelled crack</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure-modelled_crack</t>
+  </si>
+  <si>
+    <t>modelled fracture</t>
+  </si>
+  <si>
+    <t>#fracture</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure-modelled_fracture</t>
+  </si>
+  <si>
+    <t>modelled fault</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure-modelled_fault</t>
+  </si>
+  <si>
+    <t>modelled oblique-slip fault</t>
+  </si>
+  <si>
+    <t>#modelled oblique slip fault</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure-modelled_fault-modelled_oblique-slip_fault</t>
+  </si>
+  <si>
+    <t>modelled reverse fault</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure-modelled_fault-modelled_reverse_fault</t>
+  </si>
+  <si>
+    <t>modelled scissor fault</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure-modelled_fault-modelled_scissor_fault</t>
+  </si>
+  <si>
+    <t>modelled strike-slip fault</t>
+  </si>
+  <si>
+    <t>#modelled strike slip fault</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure-modelled_fault-modelled_strike-slip_fault</t>
+  </si>
+  <si>
+    <t>modelled normal fault</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure-modelled_fault-modelled_normal_fault</t>
+  </si>
+  <si>
+    <t>modelled thrust fault</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure-modelled_fault-modelled_thrust_fault</t>
+  </si>
+  <si>
+    <t>modelled wrench fault</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure-modelled_fault-modelled_wrench_fault</t>
+  </si>
+  <si>
+    <t>modelled detachment fault</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure-modelled_fault-modelled_detachment_fault</t>
+  </si>
+  <si>
+    <t>modelled kink band</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure-modelled_kink_band</t>
+  </si>
+  <si>
+    <t>modelled shear zone</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure-modelled_shear_zone</t>
+  </si>
+  <si>
+    <t>modelled detachment shear zone</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure-modelled_shear_zone-modelled_detachment_shear_zone</t>
+  </si>
+  <si>
+    <t>modelled Riedel shear</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure-modelled_riedel_shear</t>
+  </si>
+  <si>
+    <t>modelled fold</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure-modelled_fold</t>
+  </si>
+  <si>
+    <t>modelled anticline</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure-modelled_fold-modelled_anticline</t>
+  </si>
+  <si>
+    <t>modelled antiform</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure-modelled_fold-modelled_antiform</t>
+  </si>
+  <si>
+    <t>modelled syncline</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure-modelled_fold-modelled_syncline</t>
+  </si>
+  <si>
+    <t>modelled synform</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure-modelled_fold-modelled_synform</t>
+  </si>
+  <si>
+    <t>modelled boudinage</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure-modelled_boudinage</t>
+  </si>
+  <si>
+    <t>modelled orogen</t>
+  </si>
+  <si>
+    <t>#modelled orogen structure#modelled orogenic process</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure-modelled_orogen</t>
+  </si>
+  <si>
+    <t>modelled pop-up structure</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure-modelled_orogen-modelled_pop-up_structure</t>
+  </si>
+  <si>
+    <t>modelled fold and thrust belt</t>
+  </si>
+  <si>
+    <t>#modelled piggyback structure#thrust sheetnappeoverthrust</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure-modelled_orogen-modelled_fold_and_thrust_belt</t>
+  </si>
+  <si>
+    <t>Modeled geomorphological feature</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature</t>
+  </si>
+  <si>
+    <t>aeolian landforms and processes</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-aeolian_landforms_and_processes</t>
+  </si>
+  <si>
+    <t>dry lake</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-aeolian_landforms_and_processes-dry_lake</t>
+  </si>
+  <si>
+    <t>sandhill</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-aeolian_landforms_and_processes-sandhill</t>
+  </si>
+  <si>
+    <t>ventifact</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-aeolian_landforms_and_processes-ventifact</t>
+  </si>
+  <si>
+    <t>yardang</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-aeolian_landforms_and_processes-yardang</t>
+  </si>
+  <si>
+    <t>coastal and oceanic landforms</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms</t>
+  </si>
+  <si>
+    <t>abyssal fan</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-abyssal_fan</t>
+  </si>
+  <si>
+    <t>abyssal plain</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-abyssal_plain</t>
+  </si>
+  <si>
+    <t>archipelago</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-archipelago</t>
+  </si>
+  <si>
+    <t>atoll</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-atoll</t>
+  </si>
+  <si>
+    <t>arch</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-arch</t>
+  </si>
+  <si>
+    <t>ayre</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-ayre</t>
+  </si>
+  <si>
+    <t>barrier bar</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-barrier_bar</t>
+  </si>
+  <si>
+    <t>barrier island</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-barrier_island</t>
+  </si>
+  <si>
+    <t>bay</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-bay</t>
+  </si>
+  <si>
+    <t>bay mouth bar</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-bay_mouth_bar</t>
+  </si>
+  <si>
+    <t>beach</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-beach</t>
+  </si>
+  <si>
+    <t>raised beach</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-raised_beach</t>
+  </si>
+  <si>
+    <t>beach cusps</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-beach_cusps</t>
+  </si>
+  <si>
+    <t>beach ridge</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-beach_ridge</t>
+  </si>
+  <si>
+    <t>bight</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-bight</t>
+  </si>
+  <si>
+    <t>blowhole</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-blowhole</t>
+  </si>
+  <si>
+    <t>channel</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-channel</t>
+  </si>
+  <si>
+    <t>cape</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-cape</t>
+  </si>
+  <si>
+    <t>calanque</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-calanque</t>
+  </si>
+  <si>
+    <t>cliff</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-cliff</t>
+  </si>
+  <si>
+    <t>coast</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-coast</t>
+  </si>
+  <si>
+    <t>continental shelf</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-continental_shelf</t>
+  </si>
+  <si>
+    <t>coral reef</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-coral_reef</t>
+  </si>
+  <si>
+    <t>cove</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-cove</t>
+  </si>
+  <si>
+    <t>cuspate foreland</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-cuspate_foreland</t>
+  </si>
+  <si>
+    <t>dune system</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-dune_system</t>
+  </si>
+  <si>
+    <t>estuary</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-estuary</t>
+  </si>
+  <si>
+    <t>firth</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-firth</t>
+  </si>
+  <si>
+    <t>fjard</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-fjard</t>
+  </si>
+  <si>
+    <t>fjord</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-fjord</t>
+  </si>
+  <si>
+    <t>geo</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-geo</t>
+  </si>
+  <si>
+    <t>gulf</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-gulf</t>
+  </si>
+  <si>
+    <t>list of gulfs</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-list_of_gulfs</t>
+  </si>
+  <si>
+    <t>headland</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-headland</t>
+  </si>
+  <si>
+    <t>inlet</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-inlet</t>
+  </si>
+  <si>
+    <t>island</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-island</t>
+  </si>
+  <si>
+    <t>islet</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-islet</t>
+  </si>
+  <si>
+    <t>isthmus</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-isthmus</t>
+  </si>
+  <si>
+    <t>lagoon</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-lagoon</t>
+  </si>
+  <si>
+    <t>machair</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-machair</t>
+  </si>
+  <si>
+    <t>marine terrace</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-marine_terrace</t>
+  </si>
+  <si>
+    <t>mid-ocean ridge</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-mid-ocean_ridge</t>
+  </si>
+  <si>
+    <t>oceanic basin</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-oceanic_basin</t>
+  </si>
+  <si>
+    <t>oceanic plateau</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-oceanic_plateau</t>
+  </si>
+  <si>
+    <t>oceanic ridge</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-oceanic_ridge</t>
+  </si>
+  <si>
+    <t>oceanic trench</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-oceanic_trench</t>
+  </si>
+  <si>
+    <t>peninsula</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-peninsula</t>
+  </si>
+  <si>
+    <t>ria</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-ria</t>
+  </si>
+  <si>
+    <t>river delta</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-river_delta</t>
+  </si>
+  <si>
+    <t>salt marsh</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-salt_marsh</t>
+  </si>
+  <si>
+    <t>sea cave</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-sea_cave</t>
+  </si>
+  <si>
+    <t>seamount</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-seamount</t>
+  </si>
+  <si>
+    <t>seamount chains</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-seamount_chains</t>
+  </si>
+  <si>
+    <t>shoal</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-shoal</t>
+  </si>
+  <si>
+    <t>shore</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-shore</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-sound</t>
+  </si>
+  <si>
+    <t>spit</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-spit</t>
+  </si>
+  <si>
+    <t>strait</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-strait</t>
+  </si>
+  <si>
+    <t>strand flat</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-strand_flat</t>
+  </si>
+  <si>
+    <t>stack</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-stack</t>
+  </si>
+  <si>
+    <t>submarine canyon</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-submarine_canyon</t>
+  </si>
+  <si>
+    <t>surge channel</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-surge_channel</t>
+  </si>
+  <si>
+    <t>tessellated pavement</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-tessellated_pavement</t>
+  </si>
+  <si>
+    <t>tidal marsh</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-tidal_marsh</t>
+  </si>
+  <si>
+    <t>tide pool</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-tide_pool</t>
+  </si>
+  <si>
+    <t>tombolo</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-tombolo</t>
+  </si>
+  <si>
+    <t>volcanic arc</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-volcanic_arc</t>
+  </si>
+  <si>
+    <t>wave-cut platform</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-wave-cut_platform</t>
+  </si>
+  <si>
+    <t>cryogenic landforms</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-cryogenic_landforms</t>
+  </si>
+  <si>
+    <t>blockfield</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-cryogenic_landforms-blockfield</t>
+  </si>
+  <si>
+    <t>cryoplanation terrace</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-cryogenic_landforms-cryoplanation_terrace</t>
+  </si>
+  <si>
+    <t>earth hummocks</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-cryogenic_landforms-earth_hummocks</t>
+  </si>
+  <si>
+    <t>kurum</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-cryogenic_landforms-kurum</t>
+  </si>
+  <si>
+    <t>lithalsa</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-cryogenic_landforms-lithalsa</t>
+  </si>
+  <si>
+    <t>nivation hollow</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-cryogenic_landforms-nivation_hollow</t>
+  </si>
+  <si>
+    <t>palsa</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-cryogenic_landforms-palsa</t>
+  </si>
+  <si>
+    <t>permafrost plateau</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-cryogenic_landforms-permafrost_plateau</t>
+  </si>
+  <si>
+    <t>pingo</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-cryogenic_landforms-pingo</t>
+  </si>
+  <si>
+    <t>rock glacier</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-cryogenic_landforms-rock_glacier</t>
+  </si>
+  <si>
+    <t>solifluction lobes and sheets</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-cryogenic_landforms-solifluction_lobes_and_sheets</t>
+  </si>
+  <si>
+    <t>thermokarst</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-cryogenic_landforms-thermokarst</t>
+  </si>
+  <si>
+    <t>erosion landforms</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms</t>
+  </si>
+  <si>
+    <t>arête</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-arete</t>
+  </si>
+  <si>
+    <t>badlands</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-badlands</t>
+  </si>
+  <si>
+    <t>bornhardt</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-bornhardt</t>
+  </si>
+  <si>
+    <t>butte</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-butte</t>
+  </si>
+  <si>
+    <t>canyon</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-canyon</t>
+  </si>
+  <si>
+    <t>cave</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-cave</t>
+  </si>
+  <si>
+    <t>cirque</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-cirque</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-cliff</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-cryoplanation_terrace</t>
+  </si>
+  <si>
+    <t>cuesta</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-cuesta</t>
+  </si>
+  <si>
+    <t>dissected plateau</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-dissected_plateau</t>
+  </si>
+  <si>
+    <t>erg</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-erg</t>
+  </si>
+  <si>
+    <t>etch plain</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-etch_plain</t>
+  </si>
+  <si>
+    <t>exhumed river channel</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-exhumed_river_channel</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-fjord</t>
+  </si>
+  <si>
+    <t>flared slope</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-flared_slope</t>
+  </si>
+  <si>
+    <t>flatiron</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-flatiron</t>
+  </si>
+  <si>
+    <t>gulch</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-gulch</t>
+  </si>
+  <si>
+    <t>gully</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-gully</t>
+  </si>
+  <si>
+    <t>hogback</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-hogback</t>
+  </si>
+  <si>
+    <t>hoodoo</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-hoodoo</t>
+  </si>
+  <si>
+    <t>homoclinal ridge</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-homoclinal_ridge</t>
+  </si>
+  <si>
+    <t>inselberg, also known as</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-inselberg_also_known_as</t>
+  </si>
+  <si>
+    <t>inverted relief</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-inverted_relief</t>
+  </si>
+  <si>
+    <t>lavaka</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-lavaka</t>
+  </si>
+  <si>
+    <t>limestone pavement</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-limestone_pavement</t>
+  </si>
+  <si>
+    <t>mesa</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-mesa</t>
+  </si>
+  <si>
+    <t>mushroom rock</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-mushroom_rock</t>
+  </si>
+  <si>
+    <t>natural arch</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-natural_arch</t>
+  </si>
+  <si>
+    <t>paleoplain - a buried</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-paleoplain_-_a_buried</t>
+  </si>
+  <si>
+    <t>pediment</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-pediment</t>
+  </si>
+  <si>
+    <t>pediplain</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-pediplain</t>
+  </si>
+  <si>
+    <t>peneplain</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-peneplain</t>
+  </si>
+  <si>
+    <t>planation surface</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-planation_surface</t>
+  </si>
+  <si>
+    <t>potrero</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-potrero</t>
+  </si>
+  <si>
+    <t>ridge</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-ridge</t>
+  </si>
+  <si>
+    <t>rôche moutonnée</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-roche_moutonnee</t>
+  </si>
+  <si>
+    <t>strike ridge</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-strike_ridge</t>
+  </si>
+  <si>
+    <t>structural bench</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-structural_bench</t>
+  </si>
+  <si>
+    <t>structural terrace</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-structural_terrace</t>
+  </si>
+  <si>
+    <t>tepui</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-tepui</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-tessellated_pavement</t>
+  </si>
+  <si>
+    <t>truncated spur</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-truncated_spur</t>
+  </si>
+  <si>
+    <t>tor</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-tor</t>
+  </si>
+  <si>
+    <t>valley</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-valley</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-wave-cut_platform</t>
+  </si>
+  <si>
+    <t>fluvial landforms</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms</t>
+  </si>
+  <si>
+    <t>ait</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-ait</t>
+  </si>
+  <si>
+    <t>alluvial fan</t>
+  </si>
+  <si>
+    <t>#alluvial and fluvial features</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-alluvial_fan</t>
+  </si>
+  <si>
+    <t>anabranch</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-anabranch</t>
+  </si>
+  <si>
+    <t>arroyo</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-arroyo</t>
+  </si>
+  <si>
+    <t>asymmetric valley</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-asymmetric_valley</t>
+  </si>
+  <si>
+    <t>backswamp</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-backswamp</t>
+  </si>
+  <si>
+    <t>bayou</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-bayou</t>
+  </si>
+  <si>
+    <t>bench</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-bench</t>
+  </si>
+  <si>
+    <t>braided channel</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-braided_channel</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-canyon</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-cave</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-cliff</t>
+  </si>
+  <si>
+    <t>cut bank</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-cut_bank</t>
+  </si>
+  <si>
+    <t>crevasse splay</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-crevasse_splay</t>
+  </si>
+  <si>
+    <t>confluence</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-confluence</t>
+  </si>
+  <si>
+    <t>drainage basin</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-drainage_basin</t>
+  </si>
+  <si>
+    <t>drainage divide</t>
+  </si>
+  <si>
+    <t>#drainage pattern</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-drainage_divide</t>
+  </si>
+  <si>
+    <t>endorheic basin</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-endorheic_basin</t>
+  </si>
+  <si>
+    <t>entrenched meander</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-entrenched_meander</t>
+  </si>
+  <si>
+    <t>epigenetic valley</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-epigenetic_valley</t>
+  </si>
+  <si>
+    <t>esker</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-esker</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-exhumed_river_channel</t>
+  </si>
+  <si>
+    <t>floodplain</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-floodplain</t>
+  </si>
+  <si>
+    <t>fluvial island</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-fluvial_island</t>
+  </si>
+  <si>
+    <t>fluvial terrace</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-fluvial_terrace</t>
+  </si>
+  <si>
+    <t>gorge</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-gorge</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-gully</t>
+  </si>
+  <si>
+    <t>natural levee</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-natural_levee</t>
+  </si>
+  <si>
+    <t>marsh</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-marsh</t>
+  </si>
+  <si>
+    <t>meander</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-meander</t>
+  </si>
+  <si>
+    <t>misfit stream</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-misfit_stream</t>
+  </si>
+  <si>
+    <t>oxbow lake</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-oxbow_lake</t>
+  </si>
+  <si>
+    <t>point bar</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-point_bar</t>
+  </si>
+  <si>
+    <t>plunge pool</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-plunge_pool</t>
+  </si>
+  <si>
+    <t>rapid</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-rapid</t>
+  </si>
+  <si>
+    <t>riffle</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-riffle</t>
+  </si>
+  <si>
+    <t>river</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-river</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-river_delta</t>
+  </si>
+  <si>
+    <t>river island</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-river_island</t>
+  </si>
+  <si>
+    <t>rock-cut basin</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-rock-cut_basin</t>
+  </si>
+  <si>
+    <t>shut-in</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-shut-in</t>
+  </si>
+  <si>
+    <t>thalweg</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-thalweg</t>
+  </si>
+  <si>
+    <t>towhead</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-towhead</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-shoal</t>
+  </si>
+  <si>
+    <t>spring</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-spring</t>
+  </si>
+  <si>
+    <t>strath</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-strath</t>
+  </si>
+  <si>
+    <t>stream</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-stream</t>
+  </si>
+  <si>
+    <t>stream pool</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-stream_pool</t>
+  </si>
+  <si>
+    <t>swamp</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-swamp</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-valley</t>
+  </si>
+  <si>
+    <t>vale</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-vale</t>
+  </si>
+  <si>
+    <t>wadi</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-wadi</t>
+  </si>
+  <si>
+    <t>waterfall</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-waterfall</t>
+  </si>
+  <si>
+    <t>watershed</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-watershed</t>
+  </si>
+  <si>
+    <t>yazoo stream</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-yazoo_stream</t>
+  </si>
+  <si>
+    <t>V-shaped valley</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-v-shaped_valley</t>
+  </si>
+  <si>
+    <t>impact landforms</t>
+  </si>
+  <si>
+    <t>#impact structure</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-impact_landforms</t>
+  </si>
+  <si>
+    <t>central peak</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-impact_landforms-central_peak</t>
+  </si>
+  <si>
+    <t>complex crater</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-impact_landforms-complex_crater</t>
+  </si>
+  <si>
+    <t>cratered landscape</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-impact_landforms-cratered_landscape</t>
+  </si>
+  <si>
+    <t>ejecta blanket</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-impact_landforms-ejecta_blanket</t>
+  </si>
+  <si>
+    <t>impact crater</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-impact_landforms-impact_crater</t>
+  </si>
+  <si>
+    <t>impact crater lake</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-impact_landforms-impact_crater_lake</t>
+  </si>
+  <si>
+    <t>simple crater</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-impact_landforms-simple_crater</t>
+  </si>
+  <si>
+    <t>shatter cone</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-impact_landforms-shatter_cone</t>
+  </si>
+  <si>
+    <t>impact melt</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-impact_landforms-impact_melt</t>
+  </si>
+  <si>
+    <t>lacustrine landforms</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-lacustrine_landforms</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-lacustrine_landforms-beach</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-lacustrine_landforms-raised_beach</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-lacustrine_landforms-dry_lake</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-lacustrine_landforms-endorheic_basin</t>
+  </si>
+  <si>
+    <t>lacustrine plain</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-lacustrine_landforms-lacustrine_plain</t>
+  </si>
+  <si>
+    <t>lacustrine terraces</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-lacustrine_landforms-lacustrine_terraces</t>
+  </si>
+  <si>
+    <t>lake</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-lacustrine_landforms-lake</t>
+  </si>
+  <si>
+    <t>oasis</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-lacustrine_landforms-oasis</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-lacustrine_landforms-oxbow_lake</t>
+  </si>
+  <si>
+    <t>pond</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-lacustrine_landforms-pond</t>
+  </si>
+  <si>
+    <t>proglacial lake</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-lacustrine_landforms-proglacial_lake</t>
+  </si>
+  <si>
+    <t>salt pan</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-lacustrine_landforms-salt_pan</t>
+  </si>
+  <si>
+    <t>mountain and glacial landforms</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-arete</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-cirque</t>
+  </si>
+  <si>
+    <t>col</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-col</t>
+  </si>
+  <si>
+    <t>crevasse</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-crevasse</t>
+  </si>
+  <si>
+    <t>corrie</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-corrie</t>
+  </si>
+  <si>
+    <t>cove (mountain)</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-cove_mountain</t>
+  </si>
+  <si>
+    <t>dirt cone</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-dirt_cone</t>
+  </si>
+  <si>
+    <t>drumlin</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-drumlin</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-esker</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-fjord</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-fluvial_terrace</t>
+  </si>
+  <si>
+    <t>flyggberg</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-flyggberg</t>
+  </si>
+  <si>
+    <t>glacier</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-glacier</t>
+  </si>
+  <si>
+    <t>glacier cave</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-glacier_cave</t>
+  </si>
+  <si>
+    <t>glacier foreland</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-glacier_foreland</t>
+  </si>
+  <si>
+    <t>hanging valley</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-hanging_valley</t>
+  </si>
+  <si>
+    <t>hill</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-hill</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-inselberg_also_known_as</t>
+  </si>
+  <si>
+    <t>kame</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-kame</t>
+  </si>
+  <si>
+    <t>kame delta</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-kame_delta</t>
+  </si>
+  <si>
+    <t>kettle</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-kettle</t>
+  </si>
+  <si>
+    <t>moraine</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-moraine</t>
+  </si>
+  <si>
+    <t>rogen moraine, also known</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-rogen_moraine_also_known</t>
+  </si>
+  <si>
+    <t>moulin</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-moulin</t>
+  </si>
+  <si>
+    <t>mountain</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-mountain</t>
+  </si>
+  <si>
+    <t>mountain pass</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-mountain_pass</t>
+  </si>
+  <si>
+    <t>mountain range</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-mountain_range</t>
+  </si>
+  <si>
+    <t>nunatak</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-nunatak</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-proglacial_lake</t>
+  </si>
+  <si>
+    <t>pyramidal peak, also known</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-pyramidal_peak_also_known</t>
+  </si>
+  <si>
+    <t>outwash fan</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-outwash_fan</t>
+  </si>
+  <si>
+    <t>outwash plain</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-outwash_plain</t>
+  </si>
+  <si>
+    <t>rift valley</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-rift_valley</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-roche_moutonnee</t>
+  </si>
+  <si>
+    <t>sandur</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-sandur</t>
+  </si>
+  <si>
+    <t>side valley</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-side_valley</t>
+  </si>
+  <si>
+    <t>summit</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-summit</t>
+  </si>
+  <si>
+    <t>trim line</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-trim_line</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-truncated_spur</t>
+  </si>
+  <si>
+    <t>tunnel valley</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-tunnel_valley</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-valley</t>
+  </si>
+  <si>
+    <t>u-shaped valley</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-u-shaped_valley</t>
+  </si>
+  <si>
+    <t>slope landforms</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms</t>
+  </si>
+  <si>
+    <t>bluff</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-bluff</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-butte</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-canyon</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-cliff</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-col</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-cuesta</t>
+  </si>
+  <si>
+    <t>dale</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-dale</t>
+  </si>
+  <si>
+    <t>defile</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-defile</t>
+  </si>
+  <si>
+    <t>dell</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-dell</t>
+  </si>
+  <si>
+    <t>doab, also known as</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-doab_also_known_as</t>
+  </si>
+  <si>
+    <t>draw</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-draw</t>
+  </si>
+  <si>
+    <t>escarpment, also known as</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-escarpment_also_known_as</t>
+  </si>
+  <si>
+    <t>flat (landform)</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-flat_landform</t>
+  </si>
+  <si>
+    <t>glen</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-glen</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-gully</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-hill</t>
+  </si>
+  <si>
+    <t>hillock, also known as</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-hillock_also_known_as</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-mesa</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-mountain_pass</t>
+  </si>
+  <si>
+    <t>plain</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-plain</t>
+  </si>
+  <si>
+    <t>plateau</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-plateau</t>
+  </si>
+  <si>
+    <t>ravine</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-ravine</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-ridge</t>
+  </si>
+  <si>
+    <t>rock shelter</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-rock_shelter</t>
+  </si>
+  <si>
+    <t>saddle</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-saddle</t>
+  </si>
+  <si>
+    <t>scree</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-scree</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-solifluction_lobes_and_sheets</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-strath</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-summit</t>
+  </si>
+  <si>
+    <t>terrace</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-terrace</t>
+  </si>
+  <si>
+    <t>terracette</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-terracette</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-vale</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-valley</t>
+  </si>
+  <si>
+    <t>valley shoulder</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-valley_shoulder</t>
+  </si>
+  <si>
+    <t>tectonic landforms</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-tectonic_landforms</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-tectonic_landforms-asymmetric_valley</t>
+  </si>
+  <si>
+    <t>faceted spur</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-tectonic_landforms-faceted_spur</t>
+  </si>
+  <si>
+    <t>fault scarp</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-tectonic_landforms-fault_scarp</t>
+  </si>
+  <si>
+    <t>graben</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-tectonic_landforms-graben</t>
+  </si>
+  <si>
+    <t>horst</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-tectonic_landforms-horst</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-tectonic_landforms-mid-ocean_ridge</t>
+  </si>
+  <si>
+    <t>mud volcano</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-tectonic_landforms-mud_volcano</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-tectonic_landforms-oceanic_trench</t>
+  </si>
+  <si>
+    <t>pull-apart basin</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-tectonic_landforms-pull-apart_basin</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-tectonic_landforms-rift_valley</t>
+  </si>
+  <si>
+    <t>sand boil</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-tectonic_landforms-sand_boil</t>
+  </si>
+  <si>
+    <t>volcanic landforms</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-volcanic_landforms</t>
+  </si>
+  <si>
+    <t>caldera</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-volcanic_landforms-caldera</t>
+  </si>
+  <si>
+    <t>cinder cone</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-volcanic_landforms-cinder_cone</t>
+  </si>
+  <si>
+    <t>cryptodome</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-volcanic_landforms-cryptodome</t>
+  </si>
+  <si>
+    <t>diatreme</t>
+  </si>
+  <si>
+    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-volcanic_landforms-diatreme</t>
   </si>
   <si>
     <t>dike</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_magmatic_structure-dike</t>
-  </si>
-  <si>
-    <t>modelled deformation structure</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure</t>
-  </si>
-  <si>
-    <t>modelled crack</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure-modelled_crack</t>
-  </si>
-  <si>
-    <t>modelled fracture</t>
-  </si>
-  <si>
-    <t>#fracture</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure-modelled_fracture</t>
-  </si>
-  <si>
-    <t>modelled fault</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure-modelled_fault</t>
-  </si>
-  <si>
-    <t>oblique-slip fault</t>
-  </si>
-  <si>
-    <t>#oblique slip fault</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure-modelled_fault-oblique-slip_fault</t>
-  </si>
-  <si>
-    <t>reverse fault</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure-modelled_fault-reverse_fault</t>
-  </si>
-  <si>
-    <t>scissor fault</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure-modelled_fault-scissor_fault</t>
-  </si>
-  <si>
-    <t>strike-slip fault</t>
-  </si>
-  <si>
-    <t>#strike slip fault</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure-modelled_fault-strike-slip_fault</t>
-  </si>
-  <si>
-    <t>normal fault</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure-modelled_fault-normal_fault</t>
-  </si>
-  <si>
-    <t>thrust fault</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure-modelled_fault-thrust_fault</t>
-  </si>
-  <si>
-    <t>wrench fault</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure-modelled_fault-wrench_fault</t>
-  </si>
-  <si>
-    <t>detachment fault</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure-modelled_fault-detachment_fault</t>
-  </si>
-  <si>
-    <t>modelled kink band</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure-modelled_kink_band</t>
-  </si>
-  <si>
-    <t>modelled shear zone</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure-modelled_shear_zone</t>
-  </si>
-  <si>
-    <t>detachment shear zone</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure-modelled_shear_zone-detachment_shear_zone</t>
-  </si>
-  <si>
-    <t>modelled Riedel shear</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure-modelled_riedel_shear</t>
-  </si>
-  <si>
-    <t>modelled fold</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure-modelled_fold</t>
-  </si>
-  <si>
-    <t>anticline</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure-modelled_fold-anticline</t>
-  </si>
-  <si>
-    <t>antiform</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure-modelled_fold-antiform</t>
-  </si>
-  <si>
-    <t>syncline</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure-modelled_fold-syncline</t>
-  </si>
-  <si>
-    <t>synform</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure-modelled_fold-synform</t>
-  </si>
-  <si>
-    <t>modelled boudinage</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure-modelled_boudinage</t>
-  </si>
-  <si>
-    <t>modelled orogen</t>
-  </si>
-  <si>
-    <t>#orogen structure#orogenic process</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure-modelled_orogen</t>
-  </si>
-  <si>
-    <t>modelled pop-up structure</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure-modelled_orogen-modelled_pop-up_structure</t>
-  </si>
-  <si>
-    <t>modelled fold and thrust belt</t>
-  </si>
-  <si>
-    <t>#modelled piggyback structure#thrust sheetnappeoverthrust</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_structure-modelled_deformation_structure-modelled_orogen-modelled_fold_and_thrust_belt</t>
-  </si>
-  <si>
-    <t>Modeled geomorphological feature</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature</t>
-  </si>
-  <si>
-    <t>aeolian landforms and processes</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-aeolian_landforms_and_processes</t>
-  </si>
-  <si>
-    <t>dry lake</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-aeolian_landforms_and_processes-dry_lake</t>
-  </si>
-  <si>
-    <t>sandhill</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-aeolian_landforms_and_processes-sandhill</t>
-  </si>
-  <si>
-    <t>ventifact</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-aeolian_landforms_and_processes-ventifact</t>
-  </si>
-  <si>
-    <t>yardang</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-aeolian_landforms_and_processes-yardang</t>
-  </si>
-  <si>
-    <t>coastal and oceanic landforms</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms</t>
-  </si>
-  <si>
-    <t>abyssal fan</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-abyssal_fan</t>
-  </si>
-  <si>
-    <t>abyssal plain</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-abyssal_plain</t>
-  </si>
-  <si>
-    <t>archipelago</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-archipelago</t>
-  </si>
-  <si>
-    <t>atoll</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-atoll</t>
-  </si>
-  <si>
-    <t>arch</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-arch</t>
-  </si>
-  <si>
-    <t>ayre</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-ayre</t>
-  </si>
-  <si>
-    <t>barrier bar</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-barrier_bar</t>
-  </si>
-  <si>
-    <t>barrier island</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-barrier_island</t>
-  </si>
-  <si>
-    <t>bay</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-bay</t>
-  </si>
-  <si>
-    <t>bay mouth bar</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-bay_mouth_bar</t>
-  </si>
-  <si>
-    <t>beach</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-beach</t>
-  </si>
-  <si>
-    <t>raised beach</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-raised_beach</t>
-  </si>
-  <si>
-    <t>beach cusps</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-beach_cusps</t>
-  </si>
-  <si>
-    <t>beach ridge</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-beach_ridge</t>
-  </si>
-  <si>
-    <t>bight</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-bight</t>
-  </si>
-  <si>
-    <t>blowhole</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-blowhole</t>
-  </si>
-  <si>
-    <t>channel</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-channel</t>
-  </si>
-  <si>
-    <t>cape</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-cape</t>
-  </si>
-  <si>
-    <t>calanque</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-calanque</t>
-  </si>
-  <si>
-    <t>cliff</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-cliff</t>
-  </si>
-  <si>
-    <t>coast</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-coast</t>
-  </si>
-  <si>
-    <t>continental shelf</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-continental_shelf</t>
-  </si>
-  <si>
-    <t>coral reef</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-coral_reef</t>
-  </si>
-  <si>
-    <t>cove</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-cove</t>
-  </si>
-  <si>
-    <t>cuspate foreland</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-cuspate_foreland</t>
-  </si>
-  <si>
-    <t>dune system</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-dune_system</t>
-  </si>
-  <si>
-    <t>estuary</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-estuary</t>
-  </si>
-  <si>
-    <t>firth</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-firth</t>
-  </si>
-  <si>
-    <t>fjard</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-fjard</t>
-  </si>
-  <si>
-    <t>fjord</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-fjord</t>
-  </si>
-  <si>
-    <t>geo</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-geo</t>
-  </si>
-  <si>
-    <t>gulf</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-gulf</t>
-  </si>
-  <si>
-    <t>list of gulfs</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-list_of_gulfs</t>
-  </si>
-  <si>
-    <t>headland</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-headland</t>
-  </si>
-  <si>
-    <t>inlet</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-inlet</t>
-  </si>
-  <si>
-    <t>island</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-island</t>
-  </si>
-  <si>
-    <t>islet</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-islet</t>
-  </si>
-  <si>
-    <t>isthmus</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-isthmus</t>
-  </si>
-  <si>
-    <t>lagoon</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-lagoon</t>
-  </si>
-  <si>
-    <t>machair</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-machair</t>
-  </si>
-  <si>
-    <t>marine terrace</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-marine_terrace</t>
-  </si>
-  <si>
-    <t>mid-ocean ridge</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-mid-ocean_ridge</t>
-  </si>
-  <si>
-    <t>oceanic basin</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-oceanic_basin</t>
-  </si>
-  <si>
-    <t>oceanic plateau</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-oceanic_plateau</t>
-  </si>
-  <si>
-    <t>oceanic ridge</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-oceanic_ridge</t>
-  </si>
-  <si>
-    <t>oceanic trench</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-oceanic_trench</t>
-  </si>
-  <si>
-    <t>peninsula</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-peninsula</t>
-  </si>
-  <si>
-    <t>ria</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-ria</t>
-  </si>
-  <si>
-    <t>river delta</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-river_delta</t>
-  </si>
-  <si>
-    <t>salt marsh</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-salt_marsh</t>
-  </si>
-  <si>
-    <t>sea cave</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-sea_cave</t>
-  </si>
-  <si>
-    <t>seamount</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-seamount</t>
-  </si>
-  <si>
-    <t>seamount chains</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-seamount_chains</t>
-  </si>
-  <si>
-    <t>shoal</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-shoal</t>
-  </si>
-  <si>
-    <t>shore</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-shore</t>
-  </si>
-  <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-sound</t>
-  </si>
-  <si>
-    <t>spit</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-spit</t>
-  </si>
-  <si>
-    <t>strait</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-strait</t>
-  </si>
-  <si>
-    <t>strand flat</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-strand_flat</t>
-  </si>
-  <si>
-    <t>stack</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-stack</t>
-  </si>
-  <si>
-    <t>submarine canyon</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-submarine_canyon</t>
-  </si>
-  <si>
-    <t>surge channel</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-surge_channel</t>
-  </si>
-  <si>
-    <t>tessellated pavement</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-tessellated_pavement</t>
-  </si>
-  <si>
-    <t>tidal marsh</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-tidal_marsh</t>
-  </si>
-  <si>
-    <t>tide pool</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-tide_pool</t>
-  </si>
-  <si>
-    <t>tombolo</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-tombolo</t>
-  </si>
-  <si>
-    <t>volcanic arc</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-volcanic_arc</t>
-  </si>
-  <si>
-    <t>wave-cut platform</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-coastal_and_oceanic_landforms-wave-cut_platform</t>
-  </si>
-  <si>
-    <t>cryogenic landforms</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-cryogenic_landforms</t>
-  </si>
-  <si>
-    <t>blockfield</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-cryogenic_landforms-blockfield</t>
-  </si>
-  <si>
-    <t>cryoplanation terrace</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-cryogenic_landforms-cryoplanation_terrace</t>
-  </si>
-  <si>
-    <t>earth hummocks</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-cryogenic_landforms-earth_hummocks</t>
-  </si>
-  <si>
-    <t>kurum</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-cryogenic_landforms-kurum</t>
-  </si>
-  <si>
-    <t>lithalsa</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-cryogenic_landforms-lithalsa</t>
-  </si>
-  <si>
-    <t>nivation hollow</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-cryogenic_landforms-nivation_hollow</t>
-  </si>
-  <si>
-    <t>palsa</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-cryogenic_landforms-palsa</t>
-  </si>
-  <si>
-    <t>permafrost plateau</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-cryogenic_landforms-permafrost_plateau</t>
-  </si>
-  <si>
-    <t>pingo</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-cryogenic_landforms-pingo</t>
-  </si>
-  <si>
-    <t>rock glacier</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-cryogenic_landforms-rock_glacier</t>
-  </si>
-  <si>
-    <t>solifluction lobes and sheets</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-cryogenic_landforms-solifluction_lobes_and_sheets</t>
-  </si>
-  <si>
-    <t>thermokarst</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-cryogenic_landforms-thermokarst</t>
-  </si>
-  <si>
-    <t>erosion landforms</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms</t>
-  </si>
-  <si>
-    <t>arête</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-arete</t>
-  </si>
-  <si>
-    <t>badlands</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-badlands</t>
-  </si>
-  <si>
-    <t>bornhardt</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-bornhardt</t>
-  </si>
-  <si>
-    <t>butte</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-butte</t>
-  </si>
-  <si>
-    <t>canyon</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-canyon</t>
-  </si>
-  <si>
-    <t>cave</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-cave</t>
-  </si>
-  <si>
-    <t>cirque</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-cirque</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-cliff</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-cryoplanation_terrace</t>
-  </si>
-  <si>
-    <t>cuesta</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-cuesta</t>
-  </si>
-  <si>
-    <t>dissected plateau</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-dissected_plateau</t>
-  </si>
-  <si>
-    <t>erg</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-erg</t>
-  </si>
-  <si>
-    <t>etch plain</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-etch_plain</t>
-  </si>
-  <si>
-    <t>exhumed river channel</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-exhumed_river_channel</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-fjord</t>
-  </si>
-  <si>
-    <t>flared slope</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-flared_slope</t>
-  </si>
-  <si>
-    <t>flatiron</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-flatiron</t>
-  </si>
-  <si>
-    <t>gulch</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-gulch</t>
-  </si>
-  <si>
-    <t>gully</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-gully</t>
-  </si>
-  <si>
-    <t>hogback</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-hogback</t>
-  </si>
-  <si>
-    <t>hoodoo</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-hoodoo</t>
-  </si>
-  <si>
-    <t>homoclinal ridge</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-homoclinal_ridge</t>
-  </si>
-  <si>
-    <t>inselberg, also known as</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-inselberg_also_known_as</t>
-  </si>
-  <si>
-    <t>inverted relief</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-inverted_relief</t>
-  </si>
-  <si>
-    <t>lavaka</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-lavaka</t>
-  </si>
-  <si>
-    <t>limestone pavement</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-limestone_pavement</t>
-  </si>
-  <si>
-    <t>mesa</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-mesa</t>
-  </si>
-  <si>
-    <t>mushroom rock</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-mushroom_rock</t>
-  </si>
-  <si>
-    <t>natural arch</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-natural_arch</t>
-  </si>
-  <si>
-    <t>paleoplain - a buried</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-paleoplain_-_a_buried</t>
-  </si>
-  <si>
-    <t>pediment</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-pediment</t>
-  </si>
-  <si>
-    <t>pediplain</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-pediplain</t>
-  </si>
-  <si>
-    <t>peneplain</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-peneplain</t>
-  </si>
-  <si>
-    <t>planation surface</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-planation_surface</t>
-  </si>
-  <si>
-    <t>potrero</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-potrero</t>
-  </si>
-  <si>
-    <t>ridge</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-ridge</t>
-  </si>
-  <si>
-    <t>rôche moutonnée</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-roche_moutonnee</t>
-  </si>
-  <si>
-    <t>strike ridge</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-strike_ridge</t>
-  </si>
-  <si>
-    <t>structural bench</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-structural_bench</t>
-  </si>
-  <si>
-    <t>structural terrace</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-structural_terrace</t>
-  </si>
-  <si>
-    <t>tepui</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-tepui</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-tessellated_pavement</t>
-  </si>
-  <si>
-    <t>truncated spur</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-truncated_spur</t>
-  </si>
-  <si>
-    <t>tor</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-tor</t>
-  </si>
-  <si>
-    <t>valley</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-valley</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-erosion_landforms-wave-cut_platform</t>
-  </si>
-  <si>
-    <t>fluvial landforms</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms</t>
-  </si>
-  <si>
-    <t>ait</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-ait</t>
-  </si>
-  <si>
-    <t>alluvial fan</t>
-  </si>
-  <si>
-    <t>#alluvial and fluvial features</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-alluvial_fan</t>
-  </si>
-  <si>
-    <t>anabranch</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-anabranch</t>
-  </si>
-  <si>
-    <t>arroyo</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-arroyo</t>
-  </si>
-  <si>
-    <t>asymmetric valley</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-asymmetric_valley</t>
-  </si>
-  <si>
-    <t>backswamp</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-backswamp</t>
-  </si>
-  <si>
-    <t>bayou</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-bayou</t>
-  </si>
-  <si>
-    <t>bench</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-bench</t>
-  </si>
-  <si>
-    <t>braided channel</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-braided_channel</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-canyon</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-cave</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-cliff</t>
-  </si>
-  <si>
-    <t>cut bank</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-cut_bank</t>
-  </si>
-  <si>
-    <t>crevasse splay</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-crevasse_splay</t>
-  </si>
-  <si>
-    <t>confluence</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-confluence</t>
-  </si>
-  <si>
-    <t>drainage basin</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-drainage_basin</t>
-  </si>
-  <si>
-    <t>drainage divide</t>
-  </si>
-  <si>
-    <t>#drainage pattern</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-drainage_divide</t>
-  </si>
-  <si>
-    <t>endorheic basin</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-endorheic_basin</t>
-  </si>
-  <si>
-    <t>entrenched meander</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-entrenched_meander</t>
-  </si>
-  <si>
-    <t>epigenetic valley</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-epigenetic_valley</t>
-  </si>
-  <si>
-    <t>esker</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-esker</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-exhumed_river_channel</t>
-  </si>
-  <si>
-    <t>floodplain</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-floodplain</t>
-  </si>
-  <si>
-    <t>fluvial island</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-fluvial_island</t>
-  </si>
-  <si>
-    <t>fluvial terrace</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-fluvial_terrace</t>
-  </si>
-  <si>
-    <t>gorge</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-gorge</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-gully</t>
-  </si>
-  <si>
-    <t>natural levee</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-natural_levee</t>
-  </si>
-  <si>
-    <t>marsh</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-marsh</t>
-  </si>
-  <si>
-    <t>meander</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-meander</t>
-  </si>
-  <si>
-    <t>misfit stream</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-misfit_stream</t>
-  </si>
-  <si>
-    <t>oxbow lake</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-oxbow_lake</t>
-  </si>
-  <si>
-    <t>point bar</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-point_bar</t>
-  </si>
-  <si>
-    <t>plunge pool</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-plunge_pool</t>
-  </si>
-  <si>
-    <t>rapid</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-rapid</t>
-  </si>
-  <si>
-    <t>riffle</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-riffle</t>
-  </si>
-  <si>
-    <t>river</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-river</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-river_delta</t>
-  </si>
-  <si>
-    <t>river island</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-river_island</t>
-  </si>
-  <si>
-    <t>rock-cut basin</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-rock-cut_basin</t>
-  </si>
-  <si>
-    <t>shut-in</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-shut-in</t>
-  </si>
-  <si>
-    <t>thalweg</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-thalweg</t>
-  </si>
-  <si>
-    <t>towhead</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-towhead</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-shoal</t>
-  </si>
-  <si>
-    <t>spring</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-spring</t>
-  </si>
-  <si>
-    <t>strath</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-strath</t>
-  </si>
-  <si>
-    <t>stream</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-stream</t>
-  </si>
-  <si>
-    <t>stream pool</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-stream_pool</t>
-  </si>
-  <si>
-    <t>swamp</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-swamp</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-valley</t>
-  </si>
-  <si>
-    <t>vale</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-vale</t>
-  </si>
-  <si>
-    <t>wadi</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-wadi</t>
-  </si>
-  <si>
-    <t>waterfall</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-waterfall</t>
-  </si>
-  <si>
-    <t>watershed</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-watershed</t>
-  </si>
-  <si>
-    <t>yazoo stream</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-yazoo_stream</t>
-  </si>
-  <si>
-    <t>V-shaped valley</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-fluvial_landforms-v-shaped_valley</t>
-  </si>
-  <si>
-    <t>impact landforms</t>
-  </si>
-  <si>
-    <t>#impact structure</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-impact_landforms</t>
-  </si>
-  <si>
-    <t>central peak</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-impact_landforms-central_peak</t>
-  </si>
-  <si>
-    <t>complex crater</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-impact_landforms-complex_crater</t>
-  </si>
-  <si>
-    <t>cratered landscape</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-impact_landforms-cratered_landscape</t>
-  </si>
-  <si>
-    <t>ejecta blanket</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-impact_landforms-ejecta_blanket</t>
-  </si>
-  <si>
-    <t>impact crater</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-impact_landforms-impact_crater</t>
-  </si>
-  <si>
-    <t>impact crater lake</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-impact_landforms-impact_crater_lake</t>
-  </si>
-  <si>
-    <t>simple crater</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-impact_landforms-simple_crater</t>
-  </si>
-  <si>
-    <t>shatter cone</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-impact_landforms-shatter_cone</t>
-  </si>
-  <si>
-    <t>impact melt</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-impact_landforms-impact_melt</t>
-  </si>
-  <si>
-    <t>lacustrine landforms</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-lacustrine_landforms</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-lacustrine_landforms-beach</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-lacustrine_landforms-raised_beach</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-lacustrine_landforms-dry_lake</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-lacustrine_landforms-endorheic_basin</t>
-  </si>
-  <si>
-    <t>lacustrine plain</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-lacustrine_landforms-lacustrine_plain</t>
-  </si>
-  <si>
-    <t>lacustrine terraces</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-lacustrine_landforms-lacustrine_terraces</t>
-  </si>
-  <si>
-    <t>lake</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-lacustrine_landforms-lake</t>
-  </si>
-  <si>
-    <t>oasis</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-lacustrine_landforms-oasis</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-lacustrine_landforms-oxbow_lake</t>
-  </si>
-  <si>
-    <t>pond</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-lacustrine_landforms-pond</t>
-  </si>
-  <si>
-    <t>proglacial lake</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-lacustrine_landforms-proglacial_lake</t>
-  </si>
-  <si>
-    <t>salt pan</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-lacustrine_landforms-salt_pan</t>
-  </si>
-  <si>
-    <t>mountain and glacial landforms</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-arete</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-cirque</t>
-  </si>
-  <si>
-    <t>col</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-col</t>
-  </si>
-  <si>
-    <t>crevasse</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-crevasse</t>
-  </si>
-  <si>
-    <t>corrie</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-corrie</t>
-  </si>
-  <si>
-    <t>cove (mountain)</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-cove_mountain</t>
-  </si>
-  <si>
-    <t>dirt cone</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-dirt_cone</t>
-  </si>
-  <si>
-    <t>drumlin</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-drumlin</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-esker</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-fjord</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-fluvial_terrace</t>
-  </si>
-  <si>
-    <t>flyggberg</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-flyggberg</t>
-  </si>
-  <si>
-    <t>glacier</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-glacier</t>
-  </si>
-  <si>
-    <t>glacier cave</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-glacier_cave</t>
-  </si>
-  <si>
-    <t>glacier foreland</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-glacier_foreland</t>
-  </si>
-  <si>
-    <t>hanging valley</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-hanging_valley</t>
-  </si>
-  <si>
-    <t>hill</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-hill</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-inselberg_also_known_as</t>
-  </si>
-  <si>
-    <t>kame</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-kame</t>
-  </si>
-  <si>
-    <t>kame delta</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-kame_delta</t>
-  </si>
-  <si>
-    <t>kettle</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-kettle</t>
-  </si>
-  <si>
-    <t>moraine</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-moraine</t>
-  </si>
-  <si>
-    <t>rogen moraine, also known</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-rogen_moraine_also_known</t>
-  </si>
-  <si>
-    <t>moulin</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-moulin</t>
-  </si>
-  <si>
-    <t>mountain</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-mountain</t>
-  </si>
-  <si>
-    <t>mountain pass</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-mountain_pass</t>
-  </si>
-  <si>
-    <t>mountain range</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-mountain_range</t>
-  </si>
-  <si>
-    <t>nunatak</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-nunatak</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-proglacial_lake</t>
-  </si>
-  <si>
-    <t>pyramidal peak, also known</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-pyramidal_peak_also_known</t>
-  </si>
-  <si>
-    <t>outwash fan</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-outwash_fan</t>
-  </si>
-  <si>
-    <t>outwash plain</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-outwash_plain</t>
-  </si>
-  <si>
-    <t>rift valley</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-rift_valley</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-roche_moutonnee</t>
-  </si>
-  <si>
-    <t>sandur</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-sandur</t>
-  </si>
-  <si>
-    <t>side valley</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-side_valley</t>
-  </si>
-  <si>
-    <t>summit</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-summit</t>
-  </si>
-  <si>
-    <t>trim line</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-trim_line</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-truncated_spur</t>
-  </si>
-  <si>
-    <t>tunnel valley</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-tunnel_valley</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-valley</t>
-  </si>
-  <si>
-    <t>u-shaped valley</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-mountain_and_glacial_landforms-u-shaped_valley</t>
-  </si>
-  <si>
-    <t>slope landforms</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms</t>
-  </si>
-  <si>
-    <t>bluff</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-bluff</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-butte</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-canyon</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-cliff</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-col</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-cuesta</t>
-  </si>
-  <si>
-    <t>dale</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-dale</t>
-  </si>
-  <si>
-    <t>defile</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-defile</t>
-  </si>
-  <si>
-    <t>dell</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-dell</t>
-  </si>
-  <si>
-    <t>doab, also known as</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-doab_also_known_as</t>
-  </si>
-  <si>
-    <t>draw</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-draw</t>
-  </si>
-  <si>
-    <t>escarpment, also known as</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-escarpment_also_known_as</t>
-  </si>
-  <si>
-    <t>flat (landform)</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-flat_landform</t>
-  </si>
-  <si>
-    <t>glen</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-glen</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-gully</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-hill</t>
-  </si>
-  <si>
-    <t>hillock, also known as</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-hillock_also_known_as</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-mesa</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-mountain_pass</t>
-  </si>
-  <si>
-    <t>plain</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-plain</t>
-  </si>
-  <si>
-    <t>plateau</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-plateau</t>
-  </si>
-  <si>
-    <t>ravine</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-ravine</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-ridge</t>
-  </si>
-  <si>
-    <t>rock shelter</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-rock_shelter</t>
-  </si>
-  <si>
-    <t>saddle</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-saddle</t>
-  </si>
-  <si>
-    <t>scree</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-scree</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-solifluction_lobes_and_sheets</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-strath</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-summit</t>
-  </si>
-  <si>
-    <t>terrace</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-terrace</t>
-  </si>
-  <si>
-    <t>terracette</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-terracette</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-vale</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-valley</t>
-  </si>
-  <si>
-    <t>valley shoulder</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-slope_landforms-valley_shoulder</t>
-  </si>
-  <si>
-    <t>tectonic landforms</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-tectonic_landforms</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-tectonic_landforms-asymmetric_valley</t>
-  </si>
-  <si>
-    <t>faceted spur</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-tectonic_landforms-faceted_spur</t>
-  </si>
-  <si>
-    <t>fault scarp</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-tectonic_landforms-fault_scarp</t>
-  </si>
-  <si>
-    <t>graben</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-tectonic_landforms-graben</t>
-  </si>
-  <si>
-    <t>horst</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-tectonic_landforms-horst</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-tectonic_landforms-mid-ocean_ridge</t>
-  </si>
-  <si>
-    <t>mud volcano</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-tectonic_landforms-mud_volcano</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-tectonic_landforms-oceanic_trench</t>
-  </si>
-  <si>
-    <t>pull-apart basin</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-tectonic_landforms-pull-apart_basin</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-tectonic_landforms-rift_valley</t>
-  </si>
-  <si>
-    <t>sand boil</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-tectonic_landforms-sand_boil</t>
-  </si>
-  <si>
-    <t>volcanic landforms</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-volcanic_landforms</t>
-  </si>
-  <si>
-    <t>caldera</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-volcanic_landforms-caldera</t>
-  </si>
-  <si>
-    <t>cinder cone</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-volcanic_landforms-cinder_cone</t>
-  </si>
-  <si>
-    <t>cryptodome</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-volcanic_landforms-cryptodome</t>
-  </si>
-  <si>
-    <t>diatreme</t>
-  </si>
-  <si>
-    <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-volcanic_landforms-diatreme</t>
   </si>
   <si>
     <t>https://epos-msl.uu.nl/voc/analoguemodelling/1.2/modeled_geomorphological_feature-volcanic_landforms-dike</t>
@@ -7188,130 +7191,130 @@
     </row>
     <row r="346" spans="1:9">
       <c r="C346" t="s">
-        <v>20</v>
+        <v>653</v>
       </c>
       <c r="G346" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="347" spans="1:9">
       <c r="C347" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="G347" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="348" spans="1:9">
       <c r="C348" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="G348" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="349" spans="1:9">
       <c r="C349" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="G349" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="350" spans="1:9">
       <c r="C350" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="G350" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="351" spans="1:9">
       <c r="C351" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="G351" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="352" spans="1:9">
       <c r="C352" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="G352" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="353" spans="1:9">
       <c r="C353" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="G353" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="354" spans="1:9">
       <c r="C354" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="G354" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="355" spans="1:9">
       <c r="C355" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="G355" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="356" spans="1:9">
       <c r="C356" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="G356" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="357" spans="1:9">
       <c r="C357" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="G357" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="358" spans="1:9">
       <c r="C358" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="G358" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="359" spans="1:9">
       <c r="C359" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="G359" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="360" spans="1:9">
       <c r="C360" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="G360" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="361" spans="1:9">
       <c r="C361" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="G361" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="362" spans="1:9">
@@ -7319,39 +7322,39 @@
         <v>173</v>
       </c>
       <c r="G362" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="363" spans="1:9">
       <c r="C363" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="G363" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="364" spans="1:9">
       <c r="C364" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="G364" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="365" spans="1:9">
       <c r="C365" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="G365" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="366" spans="1:9">
       <c r="C366" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="G366" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="367" spans="1:9">
@@ -7359,191 +7362,191 @@
         <v>193</v>
       </c>
       <c r="G367" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="368" spans="1:9">
       <c r="C368" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="G368" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="369" spans="1:9">
       <c r="C369" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="G369" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="370" spans="1:9">
       <c r="C370" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="G370" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="371" spans="1:9">
       <c r="C371" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="G371" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="372" spans="1:9">
       <c r="C372" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="G372" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="373" spans="1:9">
       <c r="C373" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="G373" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="374" spans="1:9">
       <c r="C374" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="G374" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="375" spans="1:9">
       <c r="C375" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="G375" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="376" spans="1:9">
       <c r="C376" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="G376" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="377" spans="1:9">
       <c r="C377" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G377" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="378" spans="1:9">
       <c r="C378" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G378" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="379" spans="1:9">
       <c r="C379" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G379" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="380" spans="1:9">
       <c r="C380" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G380" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="381" spans="1:9">
       <c r="C381" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G381" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="382" spans="1:9">
       <c r="C382" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G382" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="383" spans="1:9">
       <c r="D383" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G383" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="384" spans="1:9">
       <c r="D384" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G384" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="385" spans="1:9">
       <c r="D385" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G385" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="386" spans="1:9">
       <c r="D386" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G386" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="387" spans="1:9">
       <c r="D387" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G387" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="388" spans="1:9">
       <c r="D388" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G388" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="389" spans="1:9">
       <c r="D389" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G389" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="390" spans="1:9">
       <c r="B390" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G390" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="391" spans="1:9">
@@ -7551,15 +7554,15 @@
         <v>259</v>
       </c>
       <c r="G391" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="392" spans="1:9">
       <c r="C392" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G392" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="393" spans="1:9">
@@ -7567,63 +7570,63 @@
         <v>282</v>
       </c>
       <c r="G393" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="394" spans="1:9">
       <c r="C394" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G394" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="395" spans="1:9">
       <c r="C395" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G395" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="396" spans="1:9">
       <c r="C396" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G396" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="397" spans="1:9">
       <c r="C397" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G397" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="398" spans="1:9">
       <c r="C398" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G398" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="399" spans="1:9">
       <c r="C399" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G399" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="400" spans="1:9">
       <c r="C400" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G400" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="401" spans="1:9">
@@ -7631,2318 +7634,2318 @@
         <v>337</v>
       </c>
       <c r="G401" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="402" spans="1:9">
       <c r="A402" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G402" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="403" spans="1:9">
       <c r="B403" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F403" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G403" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="404" spans="1:9">
       <c r="C404" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="F404" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="G404" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="405" spans="1:9">
       <c r="D405" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="G405" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="406" spans="1:9">
       <c r="E406" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G406" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="407" spans="1:9">
       <c r="E407" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="G407" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="408" spans="1:9">
       <c r="D408" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="G408" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="409" spans="1:9">
       <c r="E409" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="F409" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="G409" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="410" spans="1:9">
       <c r="E410" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="F410" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="G410" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="411" spans="1:9">
       <c r="D411" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="G411" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="412" spans="1:9">
       <c r="D412" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="G412" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="413" spans="1:9">
       <c r="D413" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="G413" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="414" spans="1:9">
       <c r="E414" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G414" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="415" spans="1:9">
       <c r="E415" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="G415" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="416" spans="1:9">
       <c r="D416" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="G416" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="417" spans="1:9">
       <c r="E417" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G417" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="418" spans="1:9">
       <c r="E418" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="G418" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="419" spans="1:9">
       <c r="D419" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="F419" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="G419" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="420" spans="1:9">
       <c r="C420" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="G420" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="421" spans="1:9">
       <c r="D421" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G421" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="422" spans="1:9">
       <c r="D422" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G422" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="423" spans="1:9">
       <c r="C423" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="G423" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="424" spans="1:9">
       <c r="D424" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="G424" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="425" spans="1:9">
       <c r="D425" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="G425" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="426" spans="1:9">
       <c r="D426" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="G426" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="427" spans="1:9">
       <c r="E427" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G427" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="428" spans="1:9">
       <c r="E428" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="G428" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="429" spans="1:9">
       <c r="D429" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="G429" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="430" spans="1:9">
       <c r="E430" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G430" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="431" spans="1:9">
       <c r="E431" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="G431" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="432" spans="1:9">
       <c r="C432" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="F432" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="G432" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="433" spans="1:9">
       <c r="D433" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="G433" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="434" spans="1:9">
       <c r="E434" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G434" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="435" spans="1:9">
       <c r="E435" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="G435" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="436" spans="1:9">
       <c r="D436" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="G436" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="437" spans="1:9">
       <c r="E437" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G437" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="438" spans="1:9">
       <c r="E438" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="G438" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="439" spans="1:9">
       <c r="D439" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G439" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="440" spans="1:9">
       <c r="D440" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="G440" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="441" spans="1:9">
       <c r="D441" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="G441" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="442" spans="1:9">
       <c r="D442" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="G442" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="443" spans="1:9">
       <c r="D443" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="G443" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="444" spans="1:9">
       <c r="D444" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="G444" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="445" spans="1:9">
       <c r="D445" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="F445" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G445" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="446" spans="1:9">
       <c r="C446" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="G446" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="447" spans="1:9">
       <c r="D447" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="G447" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="448" spans="1:9">
       <c r="D448" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="G448" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="449" spans="1:9">
       <c r="B449" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F449" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="G449" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="450" spans="1:9">
       <c r="C450" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="G450" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="451" spans="1:9">
       <c r="D451" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="F451" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="G451" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="452" spans="1:9">
       <c r="C452" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="G452" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="453" spans="1:9">
       <c r="D453" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="G453" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="454" spans="1:9">
       <c r="D454" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="G454" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="455" spans="1:9">
       <c r="D455" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="G455" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="456" spans="1:9">
       <c r="D456" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="G456" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="457" spans="1:9">
       <c r="C457" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="G457" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="458" spans="1:9">
       <c r="D458" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="F458" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="G458" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="459" spans="1:9">
       <c r="D459" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G459" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="460" spans="1:9">
       <c r="D460" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="G460" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="461" spans="1:9">
       <c r="D461" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G461" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="462" spans="1:9">
       <c r="C462" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="G462" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="463" spans="1:9">
       <c r="D463" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="G463" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="464" spans="1:9">
       <c r="D464" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="G464" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="465" spans="1:9">
       <c r="D465" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="G465" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="466" spans="1:9">
       <c r="D466" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="G466" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="467" spans="1:9">
       <c r="C467" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="G467" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="468" spans="1:9">
       <c r="D468" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="G468" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="469" spans="1:9">
       <c r="D469" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="G469" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="470" spans="1:9">
       <c r="D470" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="G470" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="471" spans="1:9">
       <c r="D471" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="G471" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="472" spans="1:9">
       <c r="C472" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="F472" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="G472" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="473" spans="1:9">
       <c r="D473" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="G473" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="474" spans="1:9">
       <c r="D474" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="F474" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="G474" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="475" spans="1:9">
       <c r="A475" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="G475" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="476" spans="1:9">
       <c r="B476" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="F476" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="G476" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="477" spans="1:9">
       <c r="C477" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="F477" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="G477" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="478" spans="1:9">
       <c r="D478" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="F478" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="G478" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="479" spans="1:9">
       <c r="D479" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="F479" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="G479" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="480" spans="1:9">
       <c r="C480" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="F480" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="G480" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="481" spans="1:9">
       <c r="C481" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="G481" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="482" spans="1:9">
       <c r="C482" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="F482" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="G482" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="483" spans="1:9">
       <c r="C483" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="F483" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="G483" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="484" spans="1:9">
       <c r="D484" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="G484" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="485" spans="1:9">
       <c r="D485" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="G485" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="486" spans="1:9">
       <c r="C486" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G486" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="487" spans="1:9">
       <c r="C487" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="G487" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="488" spans="1:9">
       <c r="C488" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="G488" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="489" spans="1:9">
       <c r="C489" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="F489" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="G489" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="490" spans="1:9">
       <c r="C490" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="G490" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="491" spans="1:9">
       <c r="C491" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="G491" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="492" spans="1:9">
       <c r="C492" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="G492" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="493" spans="1:9">
       <c r="C493" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="F493" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="G493" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="494" spans="1:9">
       <c r="B494" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="G494" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="495" spans="1:9">
       <c r="C495" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="G495" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="496" spans="1:9">
       <c r="C496" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F496" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="G496" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="497" spans="1:9">
       <c r="D497" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="F497" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="G497" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="498" spans="1:9">
       <c r="D498" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="F498" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="G498" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="499" spans="1:9">
       <c r="D499" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="F499" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="G499" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="500" spans="1:9">
       <c r="D500" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="F500" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="G500" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="501" spans="1:9">
       <c r="C501" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="G501" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="502" spans="1:9">
       <c r="D502" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="G502" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="503" spans="1:9">
       <c r="D503" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="G503" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="504" spans="1:9">
       <c r="B504" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="F504" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="G504" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="505" spans="1:9">
       <c r="C505" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="F505" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="G505" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="506" spans="1:9">
       <c r="C506" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="F506" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="G506" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="507" spans="1:9">
       <c r="C507" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="F507" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="G507" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="508" spans="1:9">
       <c r="B508" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="G508" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="509" spans="1:9">
       <c r="C509" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="G509" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="510" spans="1:9">
       <c r="C510" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="G510" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
     </row>
     <row r="511" spans="1:9">
       <c r="C511" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="F511" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="G511" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="512" spans="1:9">
       <c r="B512" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="G512" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="513" spans="1:9">
       <c r="C513" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="F513" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="G513" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="514" spans="1:9">
       <c r="C514" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="G514" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="515" spans="1:9">
       <c r="C515" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="G515" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="516" spans="1:9">
       <c r="C516" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="F516" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="G516" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="517" spans="1:9">
       <c r="B517" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="G517" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="518" spans="1:9">
       <c r="C518" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="G518" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="519" spans="1:9">
       <c r="C519" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="G519" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="520" spans="1:9">
       <c r="A520" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="G520" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="521" spans="1:9">
       <c r="B521" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="G521" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="522" spans="1:9">
       <c r="C522" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="F522" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="G522" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="523" spans="1:9">
       <c r="C523" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="G523" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="524" spans="1:9">
       <c r="C524" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="F524" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="G524" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="525" spans="1:9">
       <c r="C525" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="G525" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="526" spans="1:9">
       <c r="C526" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="G526" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="527" spans="1:9">
       <c r="C527" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="G527" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="528" spans="1:9">
       <c r="C528" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="G528" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="529" spans="1:9">
       <c r="D529" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="F529" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="G529" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="530" spans="1:9">
       <c r="C530" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="G530" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="531" spans="1:9">
       <c r="B531" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="F531" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="G531" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="532" spans="1:9">
       <c r="C532" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="F532" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="G532" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="533" spans="1:9">
       <c r="D533" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="G533" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="534" spans="1:9">
       <c r="D534" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="G534" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="535" spans="1:9">
       <c r="D535" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="G535" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="536" spans="1:9">
       <c r="D536" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="F536" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="G536" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="537" spans="1:9">
       <c r="D537" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="F537" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="G537" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="538" spans="1:9">
       <c r="C538" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="F538" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="G538" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="539" spans="1:9">
       <c r="C539" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="G539" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="540" spans="1:9">
       <c r="C540" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="F540" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="G540" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="541" spans="1:9">
       <c r="C541" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="G541" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="542" spans="1:9">
       <c r="C542" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="G542" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="543" spans="1:9">
       <c r="C543" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="G543" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="544" spans="1:9">
       <c r="C544" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="G544" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="545" spans="1:9">
       <c r="C545" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="G545" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="546" spans="1:9">
       <c r="B546" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="G546" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="547" spans="1:9">
       <c r="C547" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="G547" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="548" spans="1:9">
       <c r="B548" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="F548" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="G548" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="549" spans="1:9">
       <c r="C549" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="G549" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="550" spans="1:9">
       <c r="C550" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="G550" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="551" spans="1:9">
       <c r="C551" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="F551" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="G551" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="552" spans="1:9">
       <c r="B552" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="G552" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="553" spans="1:9">
       <c r="B553" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="F553" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="G553" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="554" spans="1:9">
       <c r="B554" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="G554" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="555" spans="1:9">
       <c r="B555" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="G555" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="556" spans="1:9">
       <c r="C556" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F556" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="G556" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="557" spans="1:9">
       <c r="C557" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="G557" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="558" spans="1:9">
       <c r="C558" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="G558" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="559" spans="1:9">
       <c r="C559" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="G559" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="560" spans="1:9">
       <c r="C560" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="G560" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="561" spans="1:9">
       <c r="C561" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="G561" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="562" spans="1:9">
       <c r="C562" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="G562" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="563" spans="1:9">
       <c r="C563" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="G563" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="564" spans="1:9">
       <c r="C564" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="G564" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="565" spans="1:9">
       <c r="C565" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="G565" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="566" spans="1:9">
       <c r="C566" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="G566" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="567" spans="1:9">
       <c r="C567" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="F567" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="G567" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="568" spans="1:9">
       <c r="B568" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="G568" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="569" spans="1:9">
       <c r="C569" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="F569" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="G569" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="570" spans="1:9">
       <c r="C570" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="F570" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="G570" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="571" spans="1:9">
       <c r="C571" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="G571" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="572" spans="1:9">
       <c r="C572" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="G572" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="573" spans="1:9">
       <c r="C573" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="G573" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="574" spans="1:9">
       <c r="B574" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="F574" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="G574" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="575" spans="1:9">
       <c r="C575" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="F575" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="G575" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="576" spans="1:9">
       <c r="C576" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="F576" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="G576" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="577" spans="1:9">
       <c r="C577" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="F577" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="G577" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="578" spans="1:9">
       <c r="B578" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="G578" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="579" spans="1:9">
       <c r="B579" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="G579" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="580" spans="1:9">
       <c r="C580" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="G580" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="581" spans="1:9">
       <c r="C581" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="G581" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="582" spans="1:9">
       <c r="B582" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="G582" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="583" spans="1:9">
       <c r="C583" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="G583" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="584" spans="1:9">
       <c r="C584" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="G584" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="585" spans="1:9">
       <c r="C585" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="G585" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="586" spans="1:9">
       <c r="C586" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="F586" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="G586" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="587" spans="1:9">
       <c r="B587" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="G587" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="588" spans="1:9">
       <c r="C588" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="G588" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="589" spans="1:9">
       <c r="C589" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="G589" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="590" spans="1:9">
       <c r="B590" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="G590" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="591" spans="1:9">
       <c r="B591" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="G591" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="592" spans="1:9">
       <c r="C592" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="G592" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="593" spans="1:9">
       <c r="C593" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="G593" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="594" spans="1:9">
       <c r="C594" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="G594" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="595" spans="1:9">
       <c r="B595" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="F595" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="G595" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="596" spans="1:9">
       <c r="C596" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="G596" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="597" spans="1:9">
       <c r="C597" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="G597" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="598" spans="1:9">
       <c r="B598" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="G598" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="599" spans="1:9">
       <c r="B599" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="G599" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="600" spans="1:9">
       <c r="A600" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="G600" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="601" spans="1:9">
       <c r="B601" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="F601" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="G601" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="602" spans="1:9">
       <c r="C602" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="F602" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="G602" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="603" spans="1:9">
       <c r="C603" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="F603" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="G603" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="604" spans="1:9">
       <c r="C604" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="F604" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="G604" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="605" spans="1:9">
       <c r="B605" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="F605" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="G605" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="606" spans="1:9">
       <c r="C606" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="F606" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="G606" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="607" spans="1:9">
       <c r="C607" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="F607" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="G607" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="608" spans="1:9">
       <c r="C608" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="F608" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="G608" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="609" spans="1:9">
       <c r="C609" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="F609" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="G609" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="610" spans="1:9">
       <c r="C610" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="F610" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="G610" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="611" spans="1:9">
       <c r="C611" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="F611" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="G611" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="612" spans="1:9">
       <c r="C612" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="F612" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="G612" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="613" spans="1:9">
       <c r="C613" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="F613" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="G613" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="614" spans="1:9">
       <c r="B614" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="G614" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="615" spans="1:9">
       <c r="B615" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="G615" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="616" spans="1:9">
       <c r="B616" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="G616" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="617" spans="1:9">
       <c r="B617" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="G617" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="618" spans="1:9">
       <c r="B618" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="G618" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="619" spans="1:9">
       <c r="B619" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="G619" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="620" spans="1:9">
       <c r="B620" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="G620" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="621" spans="1:9">
       <c r="B621" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="G621" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="622" spans="1:9">
       <c r="B622" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="G622" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="623" spans="1:9">
       <c r="B623" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="G623" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="624" spans="1:9">
       <c r="B624" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="G624" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="625" spans="1:9">
       <c r="B625" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="G625" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="626" spans="1:9">
       <c r="B626" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="G626" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="627" spans="1:9">
       <c r="B627" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="G627" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="628" spans="1:9">
       <c r="B628" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="G628" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="629" spans="1:9">
       <c r="B629" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="G629" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="630" spans="1:9">
       <c r="B630" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="G630" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="631" spans="1:9">
       <c r="B631" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="G631" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="632" spans="1:9">
       <c r="B632" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="G632" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="633" spans="1:9">
       <c r="B633" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="G633" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="634" spans="1:9">
       <c r="B634" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="G634" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="635" spans="1:9">
       <c r="B635" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="G635" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="636" spans="1:9">
       <c r="B636" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="G636" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="637" spans="1:9">
       <c r="B637" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="G637" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="638" spans="1:9">
       <c r="B638" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="G638" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="639" spans="1:9">
       <c r="B639" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="G639" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="640" spans="1:9">
       <c r="B640" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="G640" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="641" spans="1:9">
       <c r="B641" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="G641" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="642" spans="1:9">
       <c r="B642" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="F642" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="G642" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="643" spans="1:9">
       <c r="B643" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="G643" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="644" spans="1:9">
       <c r="B644" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="G644" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="645" spans="1:9">
       <c r="B645" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="G645" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="646" spans="1:9">
       <c r="B646" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="G646" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="647" spans="1:9">
       <c r="B647" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="G647" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="648" spans="1:9">
       <c r="B648" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="G648" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="649" spans="1:9">
       <c r="B649" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="G649" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="650" spans="1:9">
       <c r="B650" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="G650" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="651" spans="1:9">
       <c r="B651" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="G651" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="652" spans="1:9">
       <c r="B652" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="G652" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="653" spans="1:9">
       <c r="B653" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="G653" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="654" spans="1:9">
       <c r="B654" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="G654" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="655" spans="1:9">
       <c r="B655" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="G655" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="656" spans="1:9">
       <c r="B656" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="G656" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="657" spans="1:9">
       <c r="B657" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="G657" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="658" spans="1:9">
       <c r="B658" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="G658" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="659" spans="1:9">
       <c r="B659" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="G659" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="660" spans="1:9">
       <c r="B660" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="G660" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="661" spans="1:9">
       <c r="B661" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="G661" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="662" spans="1:9">
       <c r="B662" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="G662" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="663" spans="1:9">
       <c r="B663" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="G663" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="664" spans="1:9">
       <c r="B664" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="G664" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
     </row>
   </sheetData>
